--- a/biology/Botanique/Kerria/Kerria.xlsx
+++ b/biology/Botanique/Kerria/Kerria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kerria est un genre de plantes à fleurs de la famille des Rosaceae.
 Le genre Kerria nommé ainsi en l'honneur de William Kerr ne comprend qu'une espèce (genre monospécifique) :
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs d'un jaune vif, de 3 à 5 cm de diamètre, solitaires à l'extrémité des rameaux apparaissent comme pour le forsythia, avant les feuilles, dès le mois de mars.
 </t>
@@ -544,7 +558,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kerria supportant bien le froid et s'accommodant de la plupart des sols, il est fréquemment utilisé comme plante d'ornement de jardins urbains, terrasse végétalisée à substrat épais (&gt; 30cm), mais préfère un substrat légers et une situation de mi-ombre.
 </t>
